--- a/teaching/traditional_assets/database/data/bermuda/bermuda_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_metals_mining.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,32 +590,35 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.544</v>
+      </c>
       <c r="G2">
-        <v>0.009398663697104678</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="H2">
-        <v>0.009398663697104678</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="I2">
-        <v>1.035857461024499</v>
+        <v>-16.73684210526316</v>
       </c>
       <c r="J2">
-        <v>1.035857461024499</v>
+        <v>-16.73684210526316</v>
       </c>
       <c r="K2">
-        <v>-49.34</v>
+        <v>-0.019</v>
       </c>
       <c r="L2">
-        <v>1.098886414253898</v>
+        <v>-1</v>
       </c>
       <c r="M2">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003314917127071823</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.004256181597081475</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.21</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.106</v>
+        <v>0.101</v>
       </c>
       <c r="V2">
-        <v>0.001673243883188634</v>
+        <v>0.01120976692563818</v>
       </c>
       <c r="W2">
-        <v>-0.8368511146949389</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="X2">
-        <v>0.1306863247635733</v>
+        <v>0.05523793159735599</v>
       </c>
       <c r="Y2">
-        <v>-0.9675374394585122</v>
+        <v>0.0374449952319123</v>
       </c>
       <c r="Z2">
-        <v>-0.2762566910724174</v>
+        <v>0.03966597077244258</v>
       </c>
       <c r="AA2">
-        <v>-0.3459845456678913</v>
+        <v>-0.6638830897703548</v>
       </c>
       <c r="AB2">
-        <v>0.09445208590097838</v>
+        <v>0.05523793159735599</v>
       </c>
       <c r="AC2">
-        <v>-0.4404366315688696</v>
+        <v>-0.7191210213677108</v>
       </c>
       <c r="AD2">
-        <v>59.985</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.985</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>59.879</v>
+        <v>-0.101</v>
       </c>
       <c r="AH2">
-        <v>0.4863582924555073</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.4483854088802511</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.485916464468591</v>
+        <v>-0.01133685037602425</v>
       </c>
       <c r="AK2">
-        <v>0.4479479928781961</v>
+        <v>-1.942307692307693</v>
       </c>
       <c r="AL2">
-        <v>3.359</v>
+        <v>0.393</v>
       </c>
       <c r="AM2">
-        <v>3.359</v>
+        <v>0.393</v>
       </c>
       <c r="AN2">
-        <v>-150.3383458646616</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-13.8463828520393</v>
+        <v>-0.8091603053435115</v>
       </c>
       <c r="AP2">
-        <v>-150.0726817042606</v>
+        <v>0.3322368421052632</v>
       </c>
       <c r="AQ2">
-        <v>-13.8463828520393</v>
+        <v>-0.8091603053435115</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zeta Resources Limited (ASX:ZER)</t>
+          <t>Lexington Gold Ltd (AIM:LEX)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,32 +718,35 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.544</v>
+      </c>
       <c r="G3">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="H3">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="I3">
+        <v>-16.73684210526316</v>
+      </c>
+      <c r="J3">
+        <v>-16.73684210526316</v>
+      </c>
+      <c r="K3">
+        <v>-0.019</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
         <v>-0</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>-0</v>
       </c>
-      <c r="I3">
-        <v>1.031180400890868</v>
-      </c>
-      <c r="J3">
-        <v>1.031180400890868</v>
-      </c>
-      <c r="K3">
-        <v>-48.7</v>
-      </c>
-      <c r="L3">
-        <v>1.084632516703786</v>
-      </c>
-      <c r="M3">
-        <v>0.21</v>
-      </c>
-      <c r="N3">
-        <v>0.003403565640194489</v>
-      </c>
       <c r="O3">
-        <v>-0.004312114989733059</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,183 +758,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.21</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.105</v>
+        <v>0.101</v>
       </c>
       <c r="V3">
-        <v>0.001701782820097245</v>
+        <v>0.01120976692563818</v>
       </c>
       <c r="W3">
-        <v>-0.3962571196094385</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="X3">
-        <v>0.1487140062699231</v>
+        <v>0.05523793159735599</v>
       </c>
       <c r="Y3">
-        <v>-0.5449711258793616</v>
+        <v>0.0374449952319123</v>
       </c>
       <c r="Z3">
-        <v>-0.2771382543376149</v>
+        <v>0.03966597077244258</v>
       </c>
       <c r="AA3">
-        <v>-0.2857795362100572</v>
+        <v>-0.6638830897703548</v>
       </c>
       <c r="AB3">
-        <v>0.09606750772704814</v>
+        <v>0.05523793159735599</v>
       </c>
       <c r="AC3">
-        <v>-0.3818470439371053</v>
+        <v>-0.7191210213677108</v>
       </c>
       <c r="AD3">
-        <v>59.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>59.3</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>59.195</v>
+        <v>-0.101</v>
       </c>
       <c r="AH3">
-        <v>0.4900826446280991</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.4448612153038259</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.489639770048389</v>
+        <v>-0.01133685037602425</v>
       </c>
       <c r="AK3">
-        <v>0.4444235894740794</v>
+        <v>-1.942307692307693</v>
       </c>
       <c r="AL3">
-        <v>3.32</v>
+        <v>0.393</v>
       </c>
       <c r="AM3">
-        <v>3.32</v>
+        <v>0.393</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-13.94578313253012</v>
+        <v>-0.8091603053435115</v>
+      </c>
+      <c r="AP3">
+        <v>0.3322368421052632</v>
       </c>
       <c r="AQ3">
-        <v>-13.94578313253012</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Richland Resources Ltd (AIM:RLD)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Metals &amp; Mining</t>
-        </is>
-      </c>
-      <c r="K4">
-        <v>-0.64</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.001</v>
-      </c>
-      <c r="V4">
-        <v>0.0006060606060606061</v>
-      </c>
-      <c r="W4">
-        <v>-1.277445109780439</v>
-      </c>
-      <c r="X4">
-        <v>0.1126586432572236</v>
-      </c>
-      <c r="Y4">
-        <v>-1.390103753037663</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>-0.4061895551257253</v>
-      </c>
-      <c r="AB4">
-        <v>0.09283666407490862</v>
-      </c>
-      <c r="AC4">
-        <v>-0.4990262192006339</v>
-      </c>
-      <c r="AD4">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="AG4">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="AH4">
-        <v>0.2933618843683084</v>
-      </c>
-      <c r="AI4">
-        <v>1.427083333333333</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2930591259640103</v>
-      </c>
-      <c r="AK4">
-        <v>1.427974947807933</v>
-      </c>
-      <c r="AL4">
-        <v>0.039</v>
-      </c>
-      <c r="AM4">
-        <v>0.039</v>
-      </c>
-      <c r="AN4">
-        <v>-1.716791979949875</v>
-      </c>
-      <c r="AO4">
-        <v>-5.384615384615384</v>
-      </c>
-      <c r="AP4">
-        <v>-1.714285714285714</v>
-      </c>
-      <c r="AQ4">
-        <v>-5.384615384615384</v>
+        <v>-0.8091603053435115</v>
       </c>
     </row>
   </sheetData>
